--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H2">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I2">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J2">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>0.2472937370346666</v>
+        <v>0.01821687224133333</v>
       </c>
       <c r="R2">
-        <v>2.225643633312</v>
+        <v>0.163951850172</v>
       </c>
       <c r="S2">
-        <v>0.0004010654380086478</v>
+        <v>2.064724402686944E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004010654380086478</v>
+        <v>2.064724402686944E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H3">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I3">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J3">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>0.7900580886506667</v>
+        <v>0.7725595134262222</v>
       </c>
       <c r="R3">
-        <v>7.110522797856001</v>
+        <v>6.953035620836001</v>
       </c>
       <c r="S3">
-        <v>0.001281330441993908</v>
+        <v>0.0008756291742990905</v>
       </c>
       <c r="T3">
-        <v>0.001281330441993908</v>
+        <v>0.0008756291742990906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.882101333333333</v>
+        <v>0.2859746666666667</v>
       </c>
       <c r="H4">
-        <v>11.646304</v>
+        <v>0.857924</v>
       </c>
       <c r="I4">
-        <v>0.004687972125335286</v>
+        <v>0.001281503322100235</v>
       </c>
       <c r="J4">
-        <v>0.004687972125335287</v>
+        <v>0.001281503322100236</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>1.853214241898667</v>
+        <v>0.3398821305568889</v>
       </c>
       <c r="R4">
-        <v>16.678928177088</v>
+        <v>3.058939175012</v>
       </c>
       <c r="S4">
-        <v>0.00300557624533273</v>
+        <v>0.0003852269037742754</v>
       </c>
       <c r="T4">
-        <v>0.00300557624533273</v>
+        <v>0.0003852269037742754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H5">
         <v>2.411965</v>
       </c>
       <c r="I5">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J5">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,22 +750,22 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
-        <v>0.05121486082166667</v>
+        <v>0.05121486082166666</v>
       </c>
       <c r="R5">
         <v>0.460933747395</v>
       </c>
       <c r="S5">
-        <v>8.306118397618061E-05</v>
+        <v>5.804760088220887E-05</v>
       </c>
       <c r="T5">
-        <v>8.306118397618063E-05</v>
+        <v>5.804760088220885E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H6">
         <v>2.411965</v>
       </c>
       <c r="I6">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J6">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>0.1636220776816667</v>
+        <v>2.171971534542778</v>
       </c>
       <c r="R6">
-        <v>1.472598699135</v>
+        <v>19.547743810885</v>
       </c>
       <c r="S6">
-        <v>0.0002653652334271746</v>
+        <v>0.002461741274737979</v>
       </c>
       <c r="T6">
-        <v>0.0002653652334271746</v>
+        <v>0.002461741274737979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.8039883333333334</v>
+        <v>0.8039883333333333</v>
       </c>
       <c r="H7">
         <v>2.411965</v>
       </c>
       <c r="I7">
-        <v>0.0009708852428447965</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="J7">
-        <v>0.0009708852428447966</v>
+        <v>0.003602814655248594</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>0.3838031266366667</v>
+        <v>0.9555436181161111</v>
       </c>
       <c r="R7">
-        <v>3.454228139730001</v>
+        <v>8.599892563045</v>
       </c>
       <c r="S7">
-        <v>0.0006224588254414413</v>
+        <v>0.001083025779628406</v>
       </c>
       <c r="T7">
-        <v>0.0006224588254414413</v>
+        <v>0.001083025779628406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H8">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I8">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J8">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>36.232538355431</v>
+        <v>3.494976450030999</v>
       </c>
       <c r="R8">
-        <v>326.092845198879</v>
+        <v>31.454788050279</v>
       </c>
       <c r="S8">
-        <v>0.05876258347638202</v>
+        <v>0.003961252550710662</v>
       </c>
       <c r="T8">
-        <v>0.05876258347638203</v>
+        <v>0.003961252550710661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H9">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I9">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J9">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>115.756308038003</v>
+        <v>148.2184905236197</v>
       </c>
       <c r="R9">
-        <v>1041.806772342027</v>
+        <v>1333.966414712577</v>
       </c>
       <c r="S9">
-        <v>0.1877356658612727</v>
+        <v>0.1679927982473143</v>
       </c>
       <c r="T9">
-        <v>0.1877356658612728</v>
+        <v>0.1679927982473143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>568.7907310000001</v>
+        <v>54.865331</v>
       </c>
       <c r="H10">
-        <v>1706.372193</v>
+        <v>164.595993</v>
       </c>
       <c r="I10">
-        <v>0.6868638562269406</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="J10">
-        <v>0.6868638562269407</v>
+        <v>0.2458613022061244</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>271.5259064203941</v>
+        <v>65.20768364326767</v>
       </c>
       <c r="R10">
-        <v>2443.733157783547</v>
+        <v>586.869152789409</v>
       </c>
       <c r="S10">
-        <v>0.4403656068892858</v>
+        <v>0.07390725140809945</v>
       </c>
       <c r="T10">
-        <v>0.4403656068892858</v>
+        <v>0.07390725140809944</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H11">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I11">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J11">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.191103</v>
       </c>
       <c r="O11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q11">
-        <v>0.02250583933766666</v>
+        <v>0.003167234953666666</v>
       </c>
       <c r="R11">
-        <v>0.202552554039</v>
+        <v>0.028505114583</v>
       </c>
       <c r="S11">
-        <v>3.650037570683882E-05</v>
+        <v>3.589786002363698E-06</v>
       </c>
       <c r="T11">
-        <v>3.650037570683883E-05</v>
+        <v>3.589786002363697E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H12">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I12">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J12">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N12">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q12">
-        <v>0.07190202478966666</v>
+        <v>0.1343192981921111</v>
       </c>
       <c r="R12">
-        <v>0.647118223107</v>
+        <v>1.208873683729</v>
       </c>
       <c r="S12">
-        <v>0.0001166119992029307</v>
+        <v>0.0001522392697577252</v>
       </c>
       <c r="T12">
-        <v>0.0001166119992029307</v>
+        <v>0.0001522392697577252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3533043333333333</v>
+        <v>0.04972033333333333</v>
       </c>
       <c r="H13">
-        <v>1.059913</v>
+        <v>0.149161</v>
       </c>
       <c r="I13">
-        <v>0.0004266454490008588</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="J13">
-        <v>0.0004266454490008589</v>
+        <v>0.0002228056529806757</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N13">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O13">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P13">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q13">
-        <v>0.1686583028206667</v>
+        <v>0.05909283162144444</v>
       </c>
       <c r="R13">
-        <v>1.517924725386</v>
+        <v>0.531835484593</v>
       </c>
       <c r="S13">
-        <v>0.0002735330740910893</v>
+        <v>6.697659722058679E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002735330740910893</v>
+        <v>6.697659722058678E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H14">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I14">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J14">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.191103</v>
       </c>
       <c r="O14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q14">
-        <v>16.19713138875333</v>
+        <v>10.64766064663767</v>
       </c>
       <c r="R14">
-        <v>145.77418249878</v>
+        <v>95.828945819739</v>
       </c>
       <c r="S14">
-        <v>0.02626879949654092</v>
+        <v>0.01206819945674338</v>
       </c>
       <c r="T14">
-        <v>0.02626879949654092</v>
+        <v>0.01206819945674337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H15">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I15">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J15">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N15">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q15">
-        <v>51.74686112179335</v>
+        <v>451.5567447209509</v>
       </c>
       <c r="R15">
-        <v>465.7217500961401</v>
+        <v>4064.010702488557</v>
       </c>
       <c r="S15">
-        <v>0.08392399164753352</v>
+        <v>0.511800389041421</v>
       </c>
       <c r="T15">
-        <v>0.08392399164753352</v>
+        <v>0.5118003890414209</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>254.2680866666667</v>
+        <v>167.1506043333333</v>
       </c>
       <c r="H16">
-        <v>762.8042600000001</v>
+        <v>501.451813</v>
       </c>
       <c r="I16">
-        <v>0.3070506409558784</v>
+        <v>0.7490315741635462</v>
       </c>
       <c r="J16">
-        <v>0.3070506409558784</v>
+        <v>0.749031574163546</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N16">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O16">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P16">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q16">
-        <v>121.3809736044134</v>
+        <v>198.6592175694521</v>
       </c>
       <c r="R16">
-        <v>1092.42876243972</v>
+        <v>1787.932958125069</v>
       </c>
       <c r="S16">
-        <v>0.196857849811804</v>
+        <v>0.2251629856653818</v>
       </c>
       <c r="T16">
-        <v>0.196857849811804</v>
+        <v>0.2251629856653817</v>
       </c>
     </row>
   </sheetData>
